--- a/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
+++ b/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Francisco Luiz</t>
+          <t>Francisco Luiz Hintze Maranho</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
+++ b/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adilson Ferreira da Silva Junio" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jones Antonio Pagno" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDUARDO SBOARINI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BRUNA PAIVA SBOARINI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adilson Ferreira da Silva Junio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jones Antonio Pagno" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,3260 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data Criação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data Liquidação</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Email Foreign Finder</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Código Foreign Finder</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Foreign Finder</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ Office</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CUSIP Produto</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo Produto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Símbolo</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow BRL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>L1049H191</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>BGF Fixed Income Global Opps A2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>JKHDZ</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>38627.76</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7180.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>L57867621</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>JPM Global Bond Opps A (acc) USD</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>JBBNZ</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>15988.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2972.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>L5782A875</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>JPM Global High Yield Bond A (acc) USD</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>JEUIZ</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>27070.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5032.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>L01343AA7</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>AEGEA Saneamento e Participaco</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5CGGRT4</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>21683.56</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>N15516AD4</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Braskem SA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>5CQKKL9</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>13604.91</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2529.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>L9R621AA9</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Brava Energia</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>5CRLFV9</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>21807.28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>L21779AL4</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Cia Siderurgica Nacional SA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>5CQHST2</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>25442.27</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4729.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>L20041AF3</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Cosan SA</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>5CMSXC1</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>11158.94</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2074.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>279158AN9</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ecopetrol SA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>5CSWLY8</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>27382.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5090.45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>105756CG3</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Federative Republic of Brazil</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>5CQHRN1</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>44972.26</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8360.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>345370CA6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ford Motor Co</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>5231278</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>29609.54</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5504.45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>46556W2E9</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Itau Unibanco Holding SA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>5CXWWH5</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>5594.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1040.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>912797NU7</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>7381430</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>42803.37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7957.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>91282CGM7</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>7008508</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>15659.77</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2911.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>91282CGP0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>7008535</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>27111.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5040.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>G98239AB5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>XP Inc</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>5CTMSG7</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>27621.65</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5134.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Custody Transfer - Incoming</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>46434V860</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>iShares Treasury Floating Rate Bond ETF</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>ETF's</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>TFLO</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>5532.43</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1028.48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Custody Transfer - Incoming</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>UCIH753</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>JPMorgan Betabuilders US Equity UCITS ETF</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>UCITs</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>BBUS</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>32036.46</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5955.62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Cash Transfer - ACAT IN</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>5031.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>941.51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Recurso recebido via PIX</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>60000</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11378.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data Criação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data Liquidação</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Email Foreign Finder</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Código Foreign Finder</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Foreign Finder</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ Office</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CUSIP Produto</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo Produto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Símbolo</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow BRL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>L5780R169</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>JPM Global Dividend A (acc) USD</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>JKLMZ</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>29099.55</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5496.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>L5782A875</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>JPM Global High Yield Bond A (acc) USD</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>JEUIZ</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>36332.69</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6862.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Custody Transfer Funds - Incoming</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>L5781A116</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>JPM USD Standard Mny mkt VNAV A (acc.)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>JJJXZ</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>57444.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10849.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>A08163AA4</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>BRF SA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5325339</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>26083.85</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4926.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>05947LBB3</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Banco Bradesco SA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>5CXGVV5</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>27836.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5257.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>084664CW9</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Berkshire Hathaway Inc</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>5CWNPZ5</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>23407.16</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4420.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N15516AD4</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Braskem SA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>5CQKKL9</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>14052.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2654.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>L9R621AA9</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Brava Energia</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>5CRLFV9</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>38162.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7207.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>279158AN9</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ecopetrol SA</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>5CSWLY8</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>16222.63</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>345370CA6</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ford Motor Co</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>5231278</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>29167.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5508.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>91282CGM7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>7008508</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>36038.54</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6806.66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Custody Transfer Bonds - Incoming</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>91282CGP0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>7008535</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>42717.68</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8068.16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Custody Transfer - Incoming</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>UCIH753</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>JPMorgan Betabuilders US Equity UCITS ETF</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>UCITs</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>BBUS</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>21446.39</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4050.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30582702836</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>vendasara1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>BRUNA PAIVA SBOARINI</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Cash Transfer - ACAT IN</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>7191.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1358.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -623,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
+++ b/backend/data/NetInflow/excel/net_inflow_prunus.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,6 +2304,88 @@
       </c>
       <c r="T21" t="n">
         <v>11378.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12512933873</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>araimportsadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EDUARDO SBOARINI</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Felipe De Oliveira Criscuolo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>felipe@levantecorp.com.br</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>AVE080936</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Felipe Bevilacqua Geraldo</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>39764365000128</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>LEVANTE ASSET</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Recurso recebido via PIX</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>130000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>25078.13</v>
       </c>
     </row>
   </sheetData>
